--- a/backend/bao_cao_ton_kho.xlsx
+++ b/backend/bao_cao_ton_kho.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7971AF51-69BF-416A-BDA2-2862169CC5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -199,14 +203,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,17 +574,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -635,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="1">
-        <v>45280.1721803588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.172180358801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -664,10 +671,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="1">
-        <v>45280.19022736111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.190227361112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -693,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="1">
-        <v>45280.20354819445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.203548194448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -722,10 +729,10 @@
         <v>12</v>
       </c>
       <c r="I5" s="1">
-        <v>45280.17218037037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.172180370369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -751,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="1">
-        <v>45280.18787606481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.187876064811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -783,7 +790,7 @@
         <v>45280.187876296295</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -809,10 +816,10 @@
         <v>22</v>
       </c>
       <c r="I8" s="1">
-        <v>45283.58952349537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45283.589523495371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -841,7 +848,7 @@
         <v>45284.110810439815</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -870,7 +877,7 @@
         <v>45286.761000081024</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -896,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="1">
-        <v>45280.18787606481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45280.187876064811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -928,7 +935,7 @@
         <v>45280.187876296295</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -954,10 +961,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="1">
-        <v>45284.57876584491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45284.578765844912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -983,10 +990,10 @@
         <v>22</v>
       </c>
       <c r="I14" s="1">
-        <v>45284.58142043982</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45284.581420439819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1012,10 +1019,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="1">
-        <v>45286.69618745371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.696187453708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1041,10 +1048,10 @@
         <v>22</v>
       </c>
       <c r="I16" s="1">
-        <v>45287.10027481482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45287.100274814817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>45286.64208701389</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>45286.695373078706</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1128,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="I19" s="1">
-        <v>45287.08116797454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45287.081167974538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1157,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="I20" s="1">
-        <v>45287.10027481482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45287.100274814817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1186,10 +1193,10 @@
         <v>22</v>
       </c>
       <c r="I21" s="1">
-        <v>45286.63161498842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.631614988422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>45286.695373078706</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1244,10 +1251,10 @@
         <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>45286.63161498842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.631614988422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1273,10 +1280,10 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>45286.69383703703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.693837037034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1302,10 +1309,10 @@
         <v>22</v>
       </c>
       <c r="I25" s="1">
-        <v>45286.69618745371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.696187453708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1331,10 +1338,10 @@
         <v>22</v>
       </c>
       <c r="I26" s="1">
-        <v>45286.69618745371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.696187453708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1360,10 +1367,10 @@
         <v>22</v>
       </c>
       <c r="I27" s="1">
-        <v>45286.63161498842</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45286.631614988422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1392,7 +1399,7 @@
         <v>45286.695373078706</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>45286.635945462964</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>45286.693837025465</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1476,11 +1483,11 @@
         <v>22</v>
       </c>
       <c r="I31" s="1">
-        <v>45286.69478640046</v>
+        <v>45286.694786400461</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>